--- a/data/28-10-2025-nodes.xlsx
+++ b/data/28-10-2025-nodes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1043">
   <si>
     <t>Id</t>
   </si>
@@ -3128,6 +3128,18 @@
   </si>
   <si>
     <t>88.3499734</t>
+  </si>
+  <si>
+    <t>45fa1779-4232-476e-beb3-74becf4cbc95</t>
+  </si>
+  <si>
+    <t>Amtala</t>
+  </si>
+  <si>
+    <t>22.369256</t>
+  </si>
+  <si>
+    <t>88.273992</t>
   </si>
 </sst>
 </file>
@@ -3238,13 +3250,13 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3586,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13099,10 +13111,10 @@
         <v>17</v>
       </c>
       <c r="I297" s="8">
-        <v>45948.32438266204</v>
+        <v>45948</v>
       </c>
       <c r="J297" s="8">
-        <v>45948.32438266204</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="298" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13131,10 +13143,10 @@
         <v>17</v>
       </c>
       <c r="I298" s="5">
-        <v>45948.32580003473</v>
+        <v>45948</v>
       </c>
       <c r="J298" s="5">
-        <v>45948.32580003473</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="299" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13163,10 +13175,10 @@
         <v>17</v>
       </c>
       <c r="I299" s="8">
-        <v>45948.327676562505</v>
+        <v>45948</v>
       </c>
       <c r="J299" s="8">
-        <v>45948.327676562505</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="300" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13195,42 +13207,74 @@
         <v>17</v>
       </c>
       <c r="I300" s="5">
-        <v>45948.33031230324</v>
+        <v>45948</v>
       </c>
       <c r="J300" s="5">
-        <v>45948.33031230324</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="301" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="C301" s="10" t="s">
+      <c r="C301" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D301" s="10" t="s">
+      <c r="D301" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="E301" s="10" t="s">
+      <c r="E301" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="F301" s="10" t="s">
+      <c r="F301" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="G301" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H301" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I301" s="11">
-        <v>45948.36884476852</v>
-      </c>
-      <c r="J301" s="11">
-        <v>45948.36884476852</v>
+      <c r="G301" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I301" s="8">
+        <v>45948</v>
+      </c>
+      <c r="J301" s="8">
+        <v>45948</v>
+      </c>
+    </row>
+    <row r="302" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F302" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G302" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H302" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I302" s="11">
+        <v>45960.435376678244</v>
+      </c>
+      <c r="J302" s="11">
+        <v>45960.435376678244</v>
       </c>
     </row>
   </sheetData>
